--- a/bin/Data/wholefoods.xlsx
+++ b/bin/Data/wholefoods.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="853">
   <si>
     <t xml:space="preserve"> Phone: 256.801.3741</t>
   </si>
@@ -2446,6 +2446,138 @@
   </si>
   <si>
     <t>WI</t>
+  </si>
+  <si>
+    <t>06820</t>
+  </si>
+  <si>
+    <t>06824</t>
+  </si>
+  <si>
+    <t>06033</t>
+  </si>
+  <si>
+    <t>06117</t>
+  </si>
+  <si>
+    <t>06810</t>
+  </si>
+  <si>
+    <t>06460</t>
+  </si>
+  <si>
+    <t>06107</t>
+  </si>
+  <si>
+    <t>06880</t>
+  </si>
+  <si>
+    <t>06830</t>
+  </si>
+  <si>
+    <t>02118</t>
+  </si>
+  <si>
+    <t>01886</t>
+  </si>
+  <si>
+    <t>02601</t>
+  </si>
+  <si>
+    <t>02476</t>
+  </si>
+  <si>
+    <t>01940</t>
+  </si>
+  <si>
+    <t>02143</t>
+  </si>
+  <si>
+    <t>01810</t>
+  </si>
+  <si>
+    <t>01730</t>
+  </si>
+  <si>
+    <t>02026</t>
+  </si>
+  <si>
+    <t>02138</t>
+  </si>
+  <si>
+    <t>02114</t>
+  </si>
+  <si>
+    <t>02139</t>
+  </si>
+  <si>
+    <t>02019</t>
+  </si>
+  <si>
+    <t>02129</t>
+  </si>
+  <si>
+    <t>02461</t>
+  </si>
+  <si>
+    <t>02458</t>
+  </si>
+  <si>
+    <t>02155</t>
+  </si>
+  <si>
+    <t>02130</t>
+  </si>
+  <si>
+    <t>01035</t>
+  </si>
+  <si>
+    <t>02043</t>
+  </si>
+  <si>
+    <t>020816</t>
+  </si>
+  <si>
+    <t>20852</t>
+  </si>
+  <si>
+    <t>20910</t>
+  </si>
+  <si>
+    <t>21401</t>
+  </si>
+  <si>
+    <t>21209</t>
+  </si>
+  <si>
+    <t>04101</t>
+  </si>
+  <si>
+    <t>03110</t>
+  </si>
+  <si>
+    <t>03063</t>
+  </si>
+  <si>
+    <t>08034</t>
+  </si>
+  <si>
+    <t>07052</t>
+  </si>
+  <si>
+    <t>07726</t>
+  </si>
+  <si>
+    <t>02904</t>
+  </si>
+  <si>
+    <t>02906</t>
+  </si>
+  <si>
+    <t>02920</t>
+  </si>
+  <si>
+    <t>029928</t>
   </si>
 </sst>
 </file>
@@ -2929,8 +3061,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3254,16 +3389,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D382"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="C205" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
+      <selection activeCell="E367" sqref="E367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3273,7 +3408,7 @@
       <c r="B1" t="s">
         <v>751</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>35801</v>
       </c>
       <c r="D1" t="s">
@@ -3287,7 +3422,7 @@
       <c r="B2" t="s">
         <v>751</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>36608</v>
       </c>
       <c r="D2" t="s">
@@ -3301,7 +3436,7 @@
       <c r="B3" t="s">
         <v>751</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>35243</v>
       </c>
       <c r="D3" t="s">
@@ -3315,7 +3450,7 @@
       <c r="B4" t="s">
         <v>752</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>72703</v>
       </c>
       <c r="D4" t="s">
@@ -3329,7 +3464,7 @@
       <c r="B5" t="s">
         <v>752</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>72211</v>
       </c>
       <c r="D5" t="s">
@@ -3343,7 +3478,7 @@
       <c r="B6" t="s">
         <v>753</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>85016</v>
       </c>
       <c r="D6" t="s">
@@ -3357,7 +3492,7 @@
       <c r="B7" t="s">
         <v>753</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>86001</v>
       </c>
       <c r="D7" t="s">
@@ -3371,7 +3506,7 @@
       <c r="B8" t="s">
         <v>753</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>86305</v>
       </c>
       <c r="D8" t="s">
@@ -3385,7 +3520,7 @@
       <c r="B9" t="s">
         <v>754</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>95032</v>
       </c>
       <c r="D9" t="s">
@@ -3399,7 +3534,7 @@
       <c r="B10" t="s">
         <v>754</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>91356</v>
       </c>
       <c r="D10" t="s">
@@ -3413,7 +3548,7 @@
       <c r="B11" t="s">
         <v>754</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>92677</v>
       </c>
       <c r="D11" t="s">
@@ -3427,7 +3562,7 @@
       <c r="B12" t="s">
         <v>754</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>90505</v>
       </c>
       <c r="D12" t="s">
@@ -3441,7 +3576,7 @@
       <c r="B13" t="s">
         <v>754</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>91355</v>
       </c>
       <c r="D13" t="s">
@@ -3455,7 +3590,7 @@
       <c r="B14" t="s">
         <v>754</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>94941</v>
       </c>
       <c r="D14" t="s">
@@ -3469,7 +3604,7 @@
       <c r="B15" t="s">
         <v>754</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>94596</v>
       </c>
       <c r="D15" t="s">
@@ -3483,7 +3618,7 @@
       <c r="B16" t="s">
         <v>754</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>90403</v>
       </c>
       <c r="D16" t="s">
@@ -3497,7 +3632,7 @@
       <c r="B17" t="s">
         <v>754</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>90291</v>
       </c>
       <c r="D17" t="s">
@@ -3511,7 +3646,7 @@
       <c r="B18" t="s">
         <v>754</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>94109</v>
       </c>
       <c r="D18" t="s">
@@ -3525,7 +3660,7 @@
       <c r="B19" t="s">
         <v>754</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>93105</v>
       </c>
       <c r="D19" t="s">
@@ -3539,7 +3674,7 @@
       <c r="B20" t="s">
         <v>754</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>90094</v>
       </c>
       <c r="D20" t="s">
@@ -3553,7 +3688,7 @@
       <c r="B21" t="s">
         <v>754</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>95630</v>
       </c>
       <c r="D21" t="s">
@@ -3567,7 +3702,7 @@
       <c r="B22" t="s">
         <v>754</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>94710</v>
       </c>
       <c r="D22" t="s">
@@ -3581,7 +3716,7 @@
       <c r="B23" t="s">
         <v>754</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>95472</v>
       </c>
       <c r="D23" t="s">
@@ -3595,7 +3730,7 @@
       <c r="B24" t="s">
         <v>754</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>91423</v>
       </c>
       <c r="D24" t="s">
@@ -3609,7 +3744,7 @@
       <c r="B25" t="s">
         <v>754</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>94558</v>
       </c>
       <c r="D25" t="s">
@@ -3623,7 +3758,7 @@
       <c r="B26" t="s">
         <v>754</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>755</v>
       </c>
       <c r="D26" t="s">
@@ -3637,7 +3772,7 @@
       <c r="B27" t="s">
         <v>754</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>95126</v>
       </c>
       <c r="D27" t="s">
@@ -3651,7 +3786,7 @@
       <c r="B28" t="s">
         <v>754</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>93704</v>
       </c>
       <c r="D28" t="s">
@@ -3665,7 +3800,7 @@
       <c r="B29" t="s">
         <v>754</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>95678</v>
       </c>
       <c r="D29" t="s">
@@ -3679,7 +3814,7 @@
       <c r="B30" t="s">
         <v>754</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>93405</v>
       </c>
       <c r="D30" t="s">
@@ -3693,7 +3828,7 @@
       <c r="B31" t="s">
         <v>754</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>94114</v>
       </c>
       <c r="D31" t="s">
@@ -3707,7 +3842,7 @@
       <c r="B32" t="s">
         <v>754</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>95401</v>
       </c>
       <c r="D32" t="s">
@@ -3721,7 +3856,7 @@
       <c r="B33" t="s">
         <v>754</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>94583</v>
       </c>
       <c r="D33" t="s">
@@ -3735,7 +3870,7 @@
       <c r="B34" t="s">
         <v>754</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>90277</v>
       </c>
       <c r="D34" t="s">
@@ -3749,7 +3884,7 @@
       <c r="B35" t="s">
         <v>754</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>92024</v>
       </c>
       <c r="D35" t="s">
@@ -3763,7 +3898,7 @@
       <c r="B36" t="s">
         <v>754</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>90036</v>
       </c>
       <c r="D36" t="s">
@@ -3777,7 +3912,7 @@
       <c r="B37" t="s">
         <v>754</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>94062</v>
       </c>
       <c r="D37" t="s">
@@ -3791,7 +3926,7 @@
       <c r="B38" t="s">
         <v>754</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>92260</v>
       </c>
       <c r="D38" t="s">
@@ -3805,7 +3940,7 @@
       <c r="B39" t="s">
         <v>754</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>91206</v>
       </c>
       <c r="D39" t="s">
@@ -3819,7 +3954,7 @@
       <c r="B40" t="s">
         <v>754</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>90017</v>
       </c>
       <c r="D40" t="s">
@@ -3833,7 +3968,7 @@
       <c r="B41" t="s">
         <v>754</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>94568</v>
       </c>
       <c r="D41" t="s">
@@ -3847,7 +3982,7 @@
       <c r="B42" t="s">
         <v>754</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>91403</v>
       </c>
       <c r="D42" t="s">
@@ -3861,7 +3996,7 @@
       <c r="B43" t="s">
         <v>754</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>94612</v>
       </c>
       <c r="D43" t="s">
@@ -3875,7 +4010,7 @@
       <c r="B44" t="s">
         <v>754</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>92103</v>
       </c>
       <c r="D44" t="s">
@@ -3889,7 +4024,7 @@
       <c r="B45" t="s">
         <v>754</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>90403</v>
       </c>
       <c r="D45" t="s">
@@ -3903,7 +4038,7 @@
       <c r="B46" t="s">
         <v>754</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>92823</v>
       </c>
       <c r="D46" t="s">
@@ -3917,7 +4052,7 @@
       <c r="B47" t="s">
         <v>754</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>93704</v>
       </c>
       <c r="D47" t="s">
@@ -3931,7 +4066,7 @@
       <c r="B48" t="s">
         <v>754</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>95472</v>
       </c>
       <c r="D48" t="s">
@@ -3945,7 +4080,7 @@
       <c r="B49" t="s">
         <v>754</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
         <v>95678</v>
       </c>
       <c r="D49" t="s">
@@ -3959,7 +4094,7 @@
       <c r="B50" t="s">
         <v>754</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>90094</v>
       </c>
       <c r="D50" t="s">
@@ -3973,7 +4108,7 @@
       <c r="B51" t="s">
         <v>754</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1">
         <v>90064</v>
       </c>
       <c r="D51" t="s">
@@ -3987,7 +4122,7 @@
       <c r="B52" t="s">
         <v>754</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1">
         <v>95864</v>
       </c>
       <c r="D52" t="s">
@@ -4001,7 +4136,7 @@
       <c r="B53" t="s">
         <v>754</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="1">
         <v>91364</v>
       </c>
       <c r="D53" t="s">
@@ -4015,7 +4150,7 @@
       <c r="B54" t="s">
         <v>754</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="1">
         <v>91105</v>
       </c>
       <c r="D54" t="s">
@@ -4029,7 +4164,7 @@
       <c r="B55" t="s">
         <v>754</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1">
         <v>94941</v>
       </c>
       <c r="D55" t="s">
@@ -4043,7 +4178,7 @@
       <c r="B56" t="s">
         <v>754</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1">
         <v>91360</v>
       </c>
       <c r="D56" t="s">
@@ -4057,7 +4192,7 @@
       <c r="B57" t="s">
         <v>754</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="1">
         <v>90401</v>
       </c>
       <c r="D57" t="s">
@@ -4071,7 +4206,7 @@
       <c r="B58" t="s">
         <v>754</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <v>94114</v>
       </c>
       <c r="D58" t="s">
@@ -4085,7 +4220,7 @@
       <c r="B59" t="s">
         <v>754</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1">
         <v>93940</v>
       </c>
       <c r="D59" t="s">
@@ -4099,7 +4234,7 @@
       <c r="B60" t="s">
         <v>754</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1">
         <v>90024</v>
       </c>
       <c r="D60" t="s">
@@ -4113,7 +4248,7 @@
       <c r="B61" t="s">
         <v>754</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1">
         <v>94301</v>
       </c>
       <c r="D61" t="s">
@@ -4127,7 +4262,7 @@
       <c r="B62" t="s">
         <v>754</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="1">
         <v>92014</v>
       </c>
       <c r="D62" t="s">
@@ -4141,7 +4276,7 @@
       <c r="B63" t="s">
         <v>754</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="1">
         <v>95010</v>
       </c>
       <c r="D63" t="s">
@@ -4155,7 +4290,7 @@
       <c r="B64" t="s">
         <v>754</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="1">
         <v>94107</v>
       </c>
       <c r="D64" t="s">
@@ -4169,7 +4304,7 @@
       <c r="B65" t="s">
         <v>754</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="1">
         <v>93036</v>
       </c>
       <c r="D65" t="s">
@@ -4183,7 +4318,7 @@
       <c r="B66" t="s">
         <v>754</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="1">
         <v>91326</v>
       </c>
       <c r="D66" t="s">
@@ -4197,7 +4332,7 @@
       <c r="B67" t="s">
         <v>754</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="1">
         <v>95008</v>
       </c>
       <c r="D67" t="s">
@@ -4211,7 +4346,7 @@
       <c r="B68" t="s">
         <v>754</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="1">
         <v>94941</v>
       </c>
       <c r="D68" t="s">
@@ -4225,7 +4360,7 @@
       <c r="B69" t="s">
         <v>754</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="1">
         <v>94114</v>
       </c>
       <c r="D69" t="s">
@@ -4239,7 +4374,7 @@
       <c r="B70" t="s">
         <v>754</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="1">
         <v>94538</v>
       </c>
       <c r="D70" t="s">
@@ -4253,7 +4388,7 @@
       <c r="B71" t="s">
         <v>754</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="1">
         <v>95126</v>
       </c>
       <c r="D71" t="s">
@@ -4267,7 +4402,7 @@
       <c r="B72" t="s">
         <v>754</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="1">
         <v>95405</v>
       </c>
       <c r="D72" t="s">
@@ -4281,7 +4416,7 @@
       <c r="B73" t="s">
         <v>754</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="1" t="s">
         <v>756</v>
       </c>
       <c r="D73" t="s">
@@ -4295,7 +4430,7 @@
       <c r="B74" t="s">
         <v>754</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="1">
         <v>92651</v>
       </c>
       <c r="D74" t="s">
@@ -4309,7 +4444,7 @@
       <c r="B75" t="s">
         <v>754</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="1" t="s">
         <v>757</v>
       </c>
       <c r="D75" t="s">
@@ -4323,7 +4458,7 @@
       <c r="B76" t="s">
         <v>754</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="1">
         <v>94022</v>
       </c>
       <c r="D76" t="s">
@@ -4337,7 +4472,7 @@
       <c r="B77" t="s">
         <v>754</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="1">
         <v>90803</v>
       </c>
       <c r="D77" t="s">
@@ -4351,7 +4486,7 @@
       <c r="B78" t="s">
         <v>754</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="1">
         <v>95062</v>
       </c>
       <c r="D78" t="s">
@@ -4365,7 +4500,7 @@
       <c r="B79" t="s">
         <v>754</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="1">
         <v>95014</v>
       </c>
       <c r="D79" t="s">
@@ -4379,7 +4514,7 @@
       <c r="B80" t="s">
         <v>754</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="1">
         <v>94952</v>
       </c>
       <c r="D80" t="s">
@@ -4393,7 +4528,7 @@
       <c r="B81" t="s">
         <v>754</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="1">
         <v>90245</v>
       </c>
       <c r="D81" t="s">
@@ -4407,7 +4542,7 @@
       <c r="B82" t="s">
         <v>754</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="1">
         <v>92660</v>
       </c>
       <c r="D82" t="s">
@@ -4421,7 +4556,7 @@
       <c r="B83" t="s">
         <v>758</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="1">
         <v>80210</v>
       </c>
       <c r="D83" t="s">
@@ -4435,7 +4570,7 @@
       <c r="B84" t="s">
         <v>758</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="1">
         <v>80027</v>
       </c>
       <c r="D84" t="s">
@@ -4449,7 +4584,7 @@
       <c r="B85" t="s">
         <v>758</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="1">
         <v>80301</v>
       </c>
       <c r="D85" t="s">
@@ -4463,7 +4598,7 @@
       <c r="B86" t="s">
         <v>758</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="1">
         <v>80231</v>
       </c>
       <c r="D86" t="s">
@@ -4477,7 +4612,7 @@
       <c r="B87" t="s">
         <v>758</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="1">
         <v>81621</v>
       </c>
       <c r="D87" t="s">
@@ -4491,7 +4626,7 @@
       <c r="B88" t="s">
         <v>758</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="1">
         <v>80122</v>
       </c>
       <c r="D88" t="s">
@@ -4505,7 +4640,7 @@
       <c r="B89" t="s">
         <v>758</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="1">
         <v>80443</v>
       </c>
       <c r="D89" t="s">
@@ -4519,7 +4654,7 @@
       <c r="B90" t="s">
         <v>758</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="1" t="s">
         <v>759</v>
       </c>
       <c r="D90" t="s">
@@ -4533,7 +4668,7 @@
       <c r="B91" t="s">
         <v>758</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="1" t="s">
         <v>760</v>
       </c>
       <c r="D91" t="s">
@@ -4547,7 +4682,7 @@
       <c r="B92" t="s">
         <v>758</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="1">
         <v>80922</v>
       </c>
       <c r="D92" t="s">
@@ -4561,7 +4696,7 @@
       <c r="B93" t="s">
         <v>758</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="1">
         <v>80206</v>
       </c>
       <c r="D93" t="s">
@@ -4575,7 +4710,7 @@
       <c r="B94" t="s">
         <v>758</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="1">
         <v>80305</v>
       </c>
       <c r="D94" t="s">
@@ -4589,7 +4724,7 @@
       <c r="B95" t="s">
         <v>758</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="1">
         <v>80226</v>
       </c>
       <c r="D95" t="s">
@@ -4603,7 +4738,7 @@
       <c r="B96" t="s">
         <v>758</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="1">
         <v>80401</v>
       </c>
       <c r="D96" t="s">
@@ -4617,7 +4752,7 @@
       <c r="B97" t="s">
         <v>758</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="1">
         <v>80246</v>
       </c>
       <c r="D97" t="s">
@@ -4631,7 +4766,7 @@
       <c r="B98" t="s">
         <v>758</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="1">
         <v>80126</v>
       </c>
       <c r="D98" t="s">
@@ -4645,7 +4780,7 @@
       <c r="B99" t="s">
         <v>758</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="1">
         <v>80525</v>
       </c>
       <c r="D99" t="s">
@@ -4659,7 +4794,7 @@
       <c r="B100" t="s">
         <v>758</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="1">
         <v>80218</v>
       </c>
       <c r="D100" t="s">
@@ -4673,7 +4808,7 @@
       <c r="B101" t="s">
         <v>758</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="1">
         <v>80031</v>
       </c>
       <c r="D101" t="s">
@@ -4687,8 +4822,8 @@
       <c r="B102" t="s">
         <v>761</v>
       </c>
-      <c r="C102">
-        <v>6820</v>
+      <c r="C102" s="1" t="s">
+        <v>809</v>
       </c>
       <c r="D102" t="s">
         <v>186</v>
@@ -4701,8 +4836,8 @@
       <c r="B103" t="s">
         <v>761</v>
       </c>
-      <c r="C103">
-        <v>6824</v>
+      <c r="C103" s="1" t="s">
+        <v>810</v>
       </c>
       <c r="D103" t="s">
         <v>188</v>
@@ -4715,8 +4850,8 @@
       <c r="B104" t="s">
         <v>761</v>
       </c>
-      <c r="C104">
-        <v>6033</v>
+      <c r="C104" s="1" t="s">
+        <v>811</v>
       </c>
       <c r="D104" t="s">
         <v>190</v>
@@ -4729,8 +4864,8 @@
       <c r="B105" t="s">
         <v>761</v>
       </c>
-      <c r="C105">
-        <v>6117</v>
+      <c r="C105" s="1" t="s">
+        <v>812</v>
       </c>
       <c r="D105" t="s">
         <v>192</v>
@@ -4743,8 +4878,8 @@
       <c r="B106" t="s">
         <v>761</v>
       </c>
-      <c r="C106">
-        <v>6810</v>
+      <c r="C106" s="1" t="s">
+        <v>813</v>
       </c>
       <c r="D106" t="s">
         <v>194</v>
@@ -4757,8 +4892,8 @@
       <c r="B107" t="s">
         <v>761</v>
       </c>
-      <c r="C107">
-        <v>6460</v>
+      <c r="C107" s="1" t="s">
+        <v>814</v>
       </c>
       <c r="D107" t="s">
         <v>196</v>
@@ -4771,8 +4906,8 @@
       <c r="B108" t="s">
         <v>761</v>
       </c>
-      <c r="C108">
-        <v>6107</v>
+      <c r="C108" s="1" t="s">
+        <v>815</v>
       </c>
       <c r="D108" t="s">
         <v>198</v>
@@ -4785,8 +4920,8 @@
       <c r="B109" t="s">
         <v>761</v>
       </c>
-      <c r="C109">
-        <v>6880</v>
+      <c r="C109" s="1" t="s">
+        <v>816</v>
       </c>
       <c r="D109" t="s">
         <v>200</v>
@@ -4799,8 +4934,8 @@
       <c r="B110" t="s">
         <v>761</v>
       </c>
-      <c r="C110">
-        <v>6830</v>
+      <c r="C110" s="1" t="s">
+        <v>817</v>
       </c>
       <c r="D110" t="s">
         <v>202</v>
@@ -4813,7 +4948,7 @@
       <c r="B111" t="s">
         <v>762</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="1">
         <v>20016</v>
       </c>
       <c r="D111" t="s">
@@ -4827,7 +4962,7 @@
       <c r="B112" t="s">
         <v>762</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="1">
         <v>20005</v>
       </c>
       <c r="D112" t="s">
@@ -4841,7 +4976,7 @@
       <c r="B113" t="s">
         <v>762</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="1">
         <v>20037</v>
       </c>
       <c r="D113" t="s">
@@ -4855,7 +4990,7 @@
       <c r="B114" t="s">
         <v>762</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="1">
         <v>20007</v>
       </c>
       <c r="D114" t="s">
@@ -4869,7 +5004,7 @@
       <c r="B115" t="s">
         <v>763</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="1">
         <v>33401</v>
       </c>
       <c r="D115" t="s">
@@ -4883,7 +5018,7 @@
       <c r="B116" t="s">
         <v>763</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="1">
         <v>32701</v>
       </c>
       <c r="D116" t="s">
@@ -4897,7 +5032,7 @@
       <c r="B117" t="s">
         <v>763</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="1">
         <v>33324</v>
       </c>
       <c r="D117" t="s">
@@ -4911,7 +5046,7 @@
       <c r="B118" t="s">
         <v>763</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="1">
         <v>33131</v>
       </c>
       <c r="D118" t="s">
@@ -4925,7 +5060,7 @@
       <c r="B119" t="s">
         <v>763</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="1">
         <v>33062</v>
       </c>
       <c r="D119" t="s">
@@ -4939,7 +5074,7 @@
       <c r="B120" t="s">
         <v>763</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="1">
         <v>32541</v>
       </c>
       <c r="D120" t="s">
@@ -4953,7 +5088,7 @@
       <c r="B121" t="s">
         <v>763</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="1">
         <v>33431</v>
       </c>
       <c r="D121" t="s">
@@ -4967,7 +5102,7 @@
       <c r="B122" t="s">
         <v>763</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="1">
         <v>33071</v>
       </c>
       <c r="D122" t="s">
@@ -4981,7 +5116,7 @@
       <c r="B123" t="s">
         <v>763</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="1">
         <v>33305</v>
       </c>
       <c r="D123" t="s">
@@ -4995,7 +5130,7 @@
       <c r="B124" t="s">
         <v>763</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="1">
         <v>33143</v>
       </c>
       <c r="D124" t="s">
@@ -5009,7 +5144,7 @@
       <c r="B125" t="s">
         <v>763</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="1">
         <v>33180</v>
       </c>
       <c r="D125" t="s">
@@ -5023,7 +5158,7 @@
       <c r="B126" t="s">
         <v>763</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="1">
         <v>32819</v>
       </c>
       <c r="D126" t="s">
@@ -5037,7 +5172,7 @@
       <c r="B127" t="s">
         <v>763</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="1">
         <v>33761</v>
       </c>
       <c r="D127" t="s">
@@ -5051,7 +5186,7 @@
       <c r="B128" t="s">
         <v>763</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="1">
         <v>32303</v>
       </c>
       <c r="D128" t="s">
@@ -5065,7 +5200,7 @@
       <c r="B129" t="s">
         <v>763</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="1">
         <v>33410</v>
       </c>
       <c r="D129" t="s">
@@ -5079,7 +5214,7 @@
       <c r="B130" t="s">
         <v>763</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="1">
         <v>34236</v>
       </c>
       <c r="D130" t="s">
@@ -5093,7 +5228,7 @@
       <c r="B131" t="s">
         <v>763</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="1">
         <v>33027</v>
       </c>
       <c r="D131" t="s">
@@ -5107,7 +5242,7 @@
       <c r="B132" t="s">
         <v>763</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="1">
         <v>33156</v>
       </c>
       <c r="D132" t="s">
@@ -5121,7 +5256,7 @@
       <c r="B133" t="s">
         <v>763</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="1">
         <v>34108</v>
       </c>
       <c r="D133" t="s">
@@ -5135,7 +5270,7 @@
       <c r="B134" t="s">
         <v>763</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="1">
         <v>33139</v>
       </c>
       <c r="D134" t="s">
@@ -5149,7 +5284,7 @@
       <c r="B135" t="s">
         <v>764</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="1">
         <v>30909</v>
       </c>
       <c r="D135" t="s">
@@ -5163,7 +5298,7 @@
       <c r="B136" t="s">
         <v>764</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="1">
         <v>30009</v>
       </c>
       <c r="D136" t="s">
@@ -5177,7 +5312,7 @@
       <c r="B137" t="s">
         <v>764</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="1">
         <v>30329</v>
       </c>
       <c r="D137" t="s">
@@ -5191,7 +5326,7 @@
       <c r="B138" t="s">
         <v>764</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="1">
         <v>30067</v>
       </c>
       <c r="D138" t="s">
@@ -5205,7 +5340,7 @@
       <c r="B139" t="s">
         <v>764</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="1">
         <v>31404</v>
       </c>
       <c r="D139" t="s">
@@ -5219,7 +5354,7 @@
       <c r="B140" t="s">
         <v>764</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="1">
         <v>30305</v>
       </c>
       <c r="D140" t="s">
@@ -5233,7 +5368,7 @@
       <c r="B141" t="s">
         <v>764</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="1">
         <v>30068</v>
       </c>
       <c r="D141" t="s">
@@ -5247,7 +5382,7 @@
       <c r="B142" t="s">
         <v>764</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="1">
         <v>30308</v>
       </c>
       <c r="D142" t="s">
@@ -5261,7 +5396,7 @@
       <c r="B143" t="s">
         <v>764</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="1">
         <v>30328</v>
       </c>
       <c r="D143" t="s">
@@ -5275,7 +5410,7 @@
       <c r="B144" t="s">
         <v>764</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="1">
         <v>30097</v>
       </c>
       <c r="D144" t="s">
@@ -5289,7 +5424,7 @@
       <c r="B145" t="s">
         <v>765</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="1">
         <v>96732</v>
       </c>
       <c r="D145" t="s">
@@ -5303,7 +5438,7 @@
       <c r="B146" t="s">
         <v>765</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="1">
         <v>96816</v>
       </c>
       <c r="D146" t="s">
@@ -5317,7 +5452,7 @@
       <c r="B147" t="s">
         <v>765</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="1">
         <v>96734</v>
       </c>
       <c r="D147" t="s">
@@ -5331,7 +5466,7 @@
       <c r="B148" t="s">
         <v>766</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="1">
         <v>50266</v>
       </c>
       <c r="D148" t="s">
@@ -5345,7 +5480,7 @@
       <c r="B149" t="s">
         <v>767</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="1">
         <v>83702</v>
       </c>
       <c r="D149" t="s">
@@ -5359,7 +5494,7 @@
       <c r="B150" t="s">
         <v>768</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="1">
         <v>60462</v>
       </c>
       <c r="D150" t="s">
@@ -5373,7 +5508,7 @@
       <c r="B151" t="s">
         <v>768</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="1">
         <v>60074</v>
       </c>
       <c r="D151" t="s">
@@ -5387,7 +5522,7 @@
       <c r="B152" t="s">
         <v>768</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="1">
         <v>60189</v>
       </c>
       <c r="D152" t="s">
@@ -5401,7 +5536,7 @@
       <c r="B153" t="s">
         <v>768</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="1">
         <v>60607</v>
       </c>
       <c r="D153" t="s">
@@ -5415,7 +5550,7 @@
       <c r="B154" t="s">
         <v>768</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="1">
         <v>60173</v>
       </c>
       <c r="D154" t="s">
@@ -5429,7 +5564,7 @@
       <c r="B155" t="s">
         <v>768</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="1">
         <v>60068</v>
       </c>
       <c r="D155" t="s">
@@ -5443,7 +5578,7 @@
       <c r="B156" t="s">
         <v>768</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="1">
         <v>60611</v>
       </c>
       <c r="D156" t="s">
@@ -5457,7 +5592,7 @@
       <c r="B157" t="s">
         <v>768</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="1">
         <v>60126</v>
       </c>
       <c r="D157" t="s">
@@ -5471,7 +5606,7 @@
       <c r="B158" t="s">
         <v>768</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="1">
         <v>60201</v>
       </c>
       <c r="D158" t="s">
@@ -5485,7 +5620,7 @@
       <c r="B159" t="s">
         <v>768</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="1">
         <v>60660</v>
       </c>
       <c r="D159" t="s">
@@ -5499,7 +5634,7 @@
       <c r="B160" t="s">
         <v>768</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="1">
         <v>60661</v>
       </c>
       <c r="D160" t="s">
@@ -5513,7 +5648,7 @@
       <c r="B161" t="s">
         <v>768</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="1">
         <v>60614</v>
       </c>
       <c r="D161" t="s">
@@ -5527,7 +5662,7 @@
       <c r="B162" t="s">
         <v>768</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="1">
         <v>60305</v>
       </c>
       <c r="D162" t="s">
@@ -5541,7 +5676,7 @@
       <c r="B163" t="s">
         <v>768</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="1">
         <v>60540</v>
       </c>
       <c r="D163" t="s">
@@ -5555,7 +5690,7 @@
       <c r="B164" t="s">
         <v>768</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="1">
         <v>60201</v>
       </c>
       <c r="D164" t="s">
@@ -5569,7 +5704,7 @@
       <c r="B165" t="s">
         <v>768</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="1">
         <v>60015</v>
       </c>
       <c r="D165" t="s">
@@ -5583,7 +5718,7 @@
       <c r="B166" t="s">
         <v>768</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="1">
         <v>60615</v>
       </c>
       <c r="D166" t="s">
@@ -5597,7 +5732,7 @@
       <c r="B167" t="s">
         <v>768</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="1">
         <v>60527</v>
       </c>
       <c r="D167" t="s">
@@ -5611,7 +5746,7 @@
       <c r="B168" t="s">
         <v>768</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="1">
         <v>60062</v>
       </c>
       <c r="D168" t="s">
@@ -5625,7 +5760,7 @@
       <c r="B169" t="s">
         <v>768</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="1">
         <v>60657</v>
       </c>
       <c r="D169" t="s">
@@ -5639,7 +5774,7 @@
       <c r="B170" t="s">
         <v>768</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="1">
         <v>60646</v>
       </c>
       <c r="D170" t="s">
@@ -5653,7 +5788,7 @@
       <c r="B171" t="s">
         <v>769</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="1">
         <v>46375</v>
       </c>
       <c r="D171" t="s">
@@ -5667,7 +5802,7 @@
       <c r="B172" t="s">
         <v>769</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="1" t="s">
         <v>770</v>
       </c>
       <c r="D172" t="s">
@@ -5681,7 +5816,7 @@
       <c r="B173" t="s">
         <v>769</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="1">
         <v>46240</v>
       </c>
       <c r="D173" t="s">
@@ -5695,7 +5830,7 @@
       <c r="B174" t="s">
         <v>769</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="1">
         <v>46032</v>
       </c>
       <c r="D174" t="s">
@@ -5709,7 +5844,7 @@
       <c r="B175" t="s">
         <v>771</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="1">
         <v>66062</v>
       </c>
       <c r="D175" t="s">
@@ -5723,7 +5858,7 @@
       <c r="B176" t="s">
         <v>771</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="1">
         <v>67206</v>
       </c>
       <c r="D176" t="s">
@@ -5737,7 +5872,7 @@
       <c r="B177" t="s">
         <v>771</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="1">
         <v>66212</v>
       </c>
       <c r="D177" t="s">
@@ -5751,7 +5886,7 @@
       <c r="B178" t="s">
         <v>771</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="1" t="s">
         <v>772</v>
       </c>
       <c r="D178" t="s">
@@ -5765,7 +5900,7 @@
       <c r="B179" t="s">
         <v>773</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="1">
         <v>40207</v>
       </c>
       <c r="D179" t="s">
@@ -5779,7 +5914,7 @@
       <c r="B180" t="s">
         <v>773</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="1">
         <v>40503</v>
       </c>
       <c r="D180" t="s">
@@ -5793,7 +5928,7 @@
       <c r="B181" t="s">
         <v>774</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="1">
         <v>70508</v>
       </c>
       <c r="D181" t="s">
@@ -5807,7 +5942,7 @@
       <c r="B182" t="s">
         <v>774</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="1">
         <v>70471</v>
       </c>
       <c r="D182" t="s">
@@ -5821,7 +5956,7 @@
       <c r="B183" t="s">
         <v>774</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="1">
         <v>70119</v>
       </c>
       <c r="D183" t="s">
@@ -5835,7 +5970,7 @@
       <c r="B184" t="s">
         <v>774</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="1">
         <v>70002</v>
       </c>
       <c r="D184" t="s">
@@ -5849,7 +5984,7 @@
       <c r="B185" t="s">
         <v>774</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="1">
         <v>70809</v>
       </c>
       <c r="D185" t="s">
@@ -5863,7 +5998,7 @@
       <c r="B186" t="s">
         <v>774</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="1">
         <v>70115</v>
       </c>
       <c r="D186" t="s">
@@ -5877,8 +6012,8 @@
       <c r="B187" t="s">
         <v>775</v>
       </c>
-      <c r="C187">
-        <v>2118</v>
+      <c r="C187" s="1" t="s">
+        <v>818</v>
       </c>
       <c r="D187" t="s">
         <v>354</v>
@@ -5891,8 +6026,8 @@
       <c r="B188" t="s">
         <v>775</v>
       </c>
-      <c r="C188">
-        <v>1886</v>
+      <c r="C188" s="1" t="s">
+        <v>819</v>
       </c>
       <c r="D188" t="s">
         <v>356</v>
@@ -5905,8 +6040,8 @@
       <c r="B189" t="s">
         <v>775</v>
       </c>
-      <c r="C189">
-        <v>2601</v>
+      <c r="C189" s="1" t="s">
+        <v>820</v>
       </c>
       <c r="D189" t="s">
         <v>358</v>
@@ -5919,8 +6054,8 @@
       <c r="B190" t="s">
         <v>775</v>
       </c>
-      <c r="C190">
-        <v>2476</v>
+      <c r="C190" s="1" t="s">
+        <v>821</v>
       </c>
       <c r="D190" t="s">
         <v>360</v>
@@ -5933,8 +6068,8 @@
       <c r="B191" t="s">
         <v>775</v>
       </c>
-      <c r="C191">
-        <v>1940</v>
+      <c r="C191" s="1" t="s">
+        <v>822</v>
       </c>
       <c r="D191" t="s">
         <v>362</v>
@@ -5947,8 +6082,8 @@
       <c r="B192" t="s">
         <v>775</v>
       </c>
-      <c r="C192">
-        <v>2143</v>
+      <c r="C192" s="1" t="s">
+        <v>823</v>
       </c>
       <c r="D192" t="s">
         <v>364</v>
@@ -5961,8 +6096,8 @@
       <c r="B193" t="s">
         <v>775</v>
       </c>
-      <c r="C193">
-        <v>1810</v>
+      <c r="C193" s="1" t="s">
+        <v>824</v>
       </c>
       <c r="D193" t="s">
         <v>366</v>
@@ -5975,8 +6110,8 @@
       <c r="B194" t="s">
         <v>775</v>
       </c>
-      <c r="C194">
-        <v>1730</v>
+      <c r="C194" s="1" t="s">
+        <v>825</v>
       </c>
       <c r="D194" t="s">
         <v>368</v>
@@ -5989,8 +6124,8 @@
       <c r="B195" t="s">
         <v>775</v>
       </c>
-      <c r="C195">
-        <v>2026</v>
+      <c r="C195" s="1" t="s">
+        <v>826</v>
       </c>
       <c r="D195" t="s">
         <v>370</v>
@@ -6003,8 +6138,8 @@
       <c r="B196" t="s">
         <v>775</v>
       </c>
-      <c r="C196">
-        <v>2138</v>
+      <c r="C196" s="1" t="s">
+        <v>827</v>
       </c>
       <c r="D196" t="s">
         <v>372</v>
@@ -6017,8 +6152,8 @@
       <c r="B197" t="s">
         <v>775</v>
       </c>
-      <c r="C197">
-        <v>2114</v>
+      <c r="C197" s="1" t="s">
+        <v>828</v>
       </c>
       <c r="D197" t="s">
         <v>374</v>
@@ -6031,8 +6166,8 @@
       <c r="B198" t="s">
         <v>775</v>
       </c>
-      <c r="C198">
-        <v>2139</v>
+      <c r="C198" s="1" t="s">
+        <v>829</v>
       </c>
       <c r="D198" t="s">
         <v>376</v>
@@ -6045,8 +6180,8 @@
       <c r="B199" t="s">
         <v>775</v>
       </c>
-      <c r="C199">
-        <v>2019</v>
+      <c r="C199" s="1" t="s">
+        <v>830</v>
       </c>
       <c r="D199" t="s">
         <v>378</v>
@@ -6059,8 +6194,8 @@
       <c r="B200" t="s">
         <v>775</v>
       </c>
-      <c r="C200">
-        <v>2129</v>
+      <c r="C200" s="1" t="s">
+        <v>831</v>
       </c>
       <c r="D200" t="s">
         <v>380</v>
@@ -6073,7 +6208,7 @@
       <c r="B201" t="s">
         <v>775</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C201" s="1" t="s">
         <v>776</v>
       </c>
       <c r="D201" t="s">
@@ -6087,8 +6222,8 @@
       <c r="B202" t="s">
         <v>775</v>
       </c>
-      <c r="C202">
-        <v>2461</v>
+      <c r="C202" s="1" t="s">
+        <v>832</v>
       </c>
       <c r="D202" t="s">
         <v>384</v>
@@ -6101,8 +6236,8 @@
       <c r="B203" t="s">
         <v>775</v>
       </c>
-      <c r="C203">
-        <v>2458</v>
+      <c r="C203" s="1" t="s">
+        <v>833</v>
       </c>
       <c r="D203" t="s">
         <v>386</v>
@@ -6115,8 +6250,8 @@
       <c r="B204" t="s">
         <v>775</v>
       </c>
-      <c r="C204">
-        <v>2155</v>
+      <c r="C204" s="1" t="s">
+        <v>834</v>
       </c>
       <c r="D204" t="s">
         <v>388</v>
@@ -6129,8 +6264,8 @@
       <c r="B205" t="s">
         <v>775</v>
       </c>
-      <c r="C205">
-        <v>2130</v>
+      <c r="C205" s="1" t="s">
+        <v>835</v>
       </c>
       <c r="D205" t="s">
         <v>390</v>
@@ -6143,8 +6278,8 @@
       <c r="B206" t="s">
         <v>775</v>
       </c>
-      <c r="C206">
-        <v>1035</v>
+      <c r="C206" s="1" t="s">
+        <v>836</v>
       </c>
       <c r="D206" t="s">
         <v>392</v>
@@ -6157,8 +6292,8 @@
       <c r="B207" t="s">
         <v>775</v>
       </c>
-      <c r="C207">
-        <v>2043</v>
+      <c r="C207" s="1" t="s">
+        <v>837</v>
       </c>
       <c r="D207" t="s">
         <v>394</v>
@@ -6171,8 +6306,8 @@
       <c r="B208" t="s">
         <v>775</v>
       </c>
-      <c r="C208">
-        <v>2139</v>
+      <c r="C208" s="1" t="s">
+        <v>829</v>
       </c>
       <c r="D208" t="s">
         <v>396</v>
@@ -6185,8 +6320,8 @@
       <c r="B209" t="s">
         <v>777</v>
       </c>
-      <c r="C209">
-        <v>20852</v>
+      <c r="C209" s="1" t="s">
+        <v>839</v>
       </c>
       <c r="D209" t="s">
         <v>398</v>
@@ -6199,8 +6334,8 @@
       <c r="B210" t="s">
         <v>777</v>
       </c>
-      <c r="C210">
-        <v>20910</v>
+      <c r="C210" s="1" t="s">
+        <v>840</v>
       </c>
       <c r="D210" t="s">
         <v>400</v>
@@ -6213,8 +6348,8 @@
       <c r="B211" t="s">
         <v>777</v>
       </c>
-      <c r="C211">
-        <v>21401</v>
+      <c r="C211" s="1" t="s">
+        <v>841</v>
       </c>
       <c r="D211" t="s">
         <v>401</v>
@@ -6227,8 +6362,8 @@
       <c r="B212" t="s">
         <v>777</v>
       </c>
-      <c r="C212">
-        <v>21209</v>
+      <c r="C212" s="1" t="s">
+        <v>842</v>
       </c>
       <c r="D212" t="s">
         <v>403</v>
@@ -6241,7 +6376,7 @@
       <c r="B213" t="s">
         <v>777</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C213" s="1" t="s">
         <v>778</v>
       </c>
       <c r="D213" t="s">
@@ -6255,8 +6390,8 @@
       <c r="B214" t="s">
         <v>777</v>
       </c>
-      <c r="C214">
-        <v>20816</v>
+      <c r="C214" s="1" t="s">
+        <v>838</v>
       </c>
       <c r="D214" t="s">
         <v>407</v>
@@ -6269,7 +6404,7 @@
       <c r="B215" t="s">
         <v>777</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="1">
         <v>20815</v>
       </c>
       <c r="D215" t="s">
@@ -6283,7 +6418,7 @@
       <c r="B216" t="s">
         <v>777</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="1">
         <v>21202</v>
       </c>
       <c r="D216" t="s">
@@ -6297,7 +6432,7 @@
       <c r="B217" t="s">
         <v>777</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="1">
         <v>21044</v>
       </c>
       <c r="D217" t="s">
@@ -6311,8 +6446,8 @@
       <c r="B218" t="s">
         <v>779</v>
       </c>
-      <c r="C218">
-        <v>4101</v>
+      <c r="C218" s="1" t="s">
+        <v>843</v>
       </c>
       <c r="D218" t="s">
         <v>415</v>
@@ -6325,7 +6460,7 @@
       <c r="B219" t="s">
         <v>780</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="1">
         <v>48201</v>
       </c>
       <c r="D219" t="s">
@@ -6339,7 +6474,7 @@
       <c r="B220" t="s">
         <v>780</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="1">
         <v>48823</v>
       </c>
       <c r="D220" t="s">
@@ -6353,7 +6488,7 @@
       <c r="B221" t="s">
         <v>780</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="1">
         <v>48322</v>
       </c>
       <c r="D221" t="s">
@@ -6367,7 +6502,7 @@
       <c r="B222" t="s">
         <v>780</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="1">
         <v>48084</v>
       </c>
       <c r="D222" t="s">
@@ -6381,7 +6516,7 @@
       <c r="B223" t="s">
         <v>780</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="1">
         <v>48103</v>
       </c>
       <c r="D223" t="s">
@@ -6395,7 +6530,7 @@
       <c r="B224" t="s">
         <v>780</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="1">
         <v>48309</v>
       </c>
       <c r="D224" t="s">
@@ -6409,7 +6544,7 @@
       <c r="B225" t="s">
         <v>780</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="1">
         <v>48104</v>
       </c>
       <c r="D225" t="s">
@@ -6423,7 +6558,7 @@
       <c r="B226" t="s">
         <v>781</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="1">
         <v>55369</v>
       </c>
       <c r="D226" t="s">
@@ -6437,7 +6572,7 @@
       <c r="B227" t="s">
         <v>781</v>
       </c>
-      <c r="C227">
+      <c r="C227" s="1">
         <v>55401</v>
       </c>
       <c r="D227" t="s">
@@ -6451,7 +6586,7 @@
       <c r="B228" t="s">
         <v>781</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="1">
         <v>55435</v>
       </c>
       <c r="D228" t="s">
@@ -6465,7 +6600,7 @@
       <c r="B229" t="s">
         <v>781</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="1">
         <v>55105</v>
       </c>
       <c r="D229" t="s">
@@ -6479,7 +6614,7 @@
       <c r="B230" t="s">
         <v>781</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="1">
         <v>55305</v>
       </c>
       <c r="D230" t="s">
@@ -6493,7 +6628,7 @@
       <c r="B231" t="s">
         <v>781</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="1">
         <v>55416</v>
       </c>
       <c r="D231" t="s">
@@ -6507,7 +6642,7 @@
       <c r="B232" t="s">
         <v>782</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="1">
         <v>63108</v>
       </c>
       <c r="D232" t="s">
@@ -6521,7 +6656,7 @@
       <c r="B233" t="s">
         <v>782</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="1">
         <v>63144</v>
       </c>
       <c r="D233" t="s">
@@ -6535,7 +6670,7 @@
       <c r="B234" t="s">
         <v>782</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="1">
         <v>63017</v>
       </c>
       <c r="D234" t="s">
@@ -6549,7 +6684,7 @@
       <c r="B235" t="s">
         <v>783</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="1">
         <v>39211</v>
       </c>
       <c r="D235" t="s">
@@ -6563,7 +6698,7 @@
       <c r="B236" t="s">
         <v>784</v>
       </c>
-      <c r="C236">
+      <c r="C236" s="1">
         <v>28403</v>
       </c>
       <c r="D236" t="s">
@@ -6577,7 +6712,7 @@
       <c r="B237" t="s">
         <v>784</v>
       </c>
-      <c r="C237">
+      <c r="C237" s="1">
         <v>27104</v>
       </c>
       <c r="D237" t="s">
@@ -6591,7 +6726,7 @@
       <c r="B238" t="s">
         <v>784</v>
       </c>
-      <c r="C238">
+      <c r="C238" s="1">
         <v>28210</v>
       </c>
       <c r="D238" t="s">
@@ -6605,7 +6740,7 @@
       <c r="B239" t="s">
         <v>784</v>
       </c>
-      <c r="C239">
+      <c r="C239" s="1">
         <v>28805</v>
       </c>
       <c r="D239" t="s">
@@ -6619,7 +6754,7 @@
       <c r="B240" t="s">
         <v>784</v>
       </c>
-      <c r="C240">
+      <c r="C240" s="1">
         <v>28078</v>
       </c>
       <c r="D240" t="s">
@@ -6633,7 +6768,7 @@
       <c r="B241" t="s">
         <v>784</v>
       </c>
-      <c r="C241">
+      <c r="C241" s="1">
         <v>27607</v>
       </c>
       <c r="D241" t="s">
@@ -6647,7 +6782,7 @@
       <c r="B242" t="s">
         <v>784</v>
       </c>
-      <c r="C242">
+      <c r="C242" s="1">
         <v>27615</v>
       </c>
       <c r="D242" t="s">
@@ -6661,7 +6796,7 @@
       <c r="B243" t="s">
         <v>784</v>
       </c>
-      <c r="C243">
+      <c r="C243" s="1">
         <v>27518</v>
       </c>
       <c r="D243" t="s">
@@ -6675,7 +6810,7 @@
       <c r="B244" t="s">
         <v>784</v>
       </c>
-      <c r="C244">
+      <c r="C244" s="1">
         <v>27514</v>
       </c>
       <c r="D244" t="s">
@@ -6689,7 +6824,7 @@
       <c r="B245" t="s">
         <v>784</v>
       </c>
-      <c r="C245">
+      <c r="C245" s="1">
         <v>27705</v>
       </c>
       <c r="D245" t="s">
@@ -6703,7 +6838,7 @@
       <c r="B246" t="s">
         <v>784</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C246" s="1" t="s">
         <v>785</v>
       </c>
       <c r="D246" t="s">
@@ -6717,7 +6852,7 @@
       <c r="B247" t="s">
         <v>784</v>
       </c>
-      <c r="C247">
+      <c r="C247" s="1">
         <v>28801</v>
       </c>
       <c r="D247" t="s">
@@ -6731,7 +6866,7 @@
       <c r="B248" t="s">
         <v>786</v>
       </c>
-      <c r="C248">
+      <c r="C248" s="1">
         <v>68510</v>
       </c>
       <c r="D248" t="s">
@@ -6745,7 +6880,7 @@
       <c r="B249" t="s">
         <v>786</v>
       </c>
-      <c r="C249">
+      <c r="C249" s="1">
         <v>68114</v>
       </c>
       <c r="D249" t="s">
@@ -6759,8 +6894,8 @@
       <c r="B250" t="s">
         <v>787</v>
       </c>
-      <c r="C250">
-        <v>3110</v>
+      <c r="C250" s="1" t="s">
+        <v>844</v>
       </c>
       <c r="D250" t="s">
         <v>479</v>
@@ -6773,8 +6908,8 @@
       <c r="B251" t="s">
         <v>787</v>
       </c>
-      <c r="C251">
-        <v>3063</v>
+      <c r="C251" s="1" t="s">
+        <v>845</v>
       </c>
       <c r="D251" t="s">
         <v>481</v>
@@ -6787,8 +6922,8 @@
       <c r="B252" t="s">
         <v>788</v>
       </c>
-      <c r="C252">
-        <v>8034</v>
+      <c r="C252" s="1" t="s">
+        <v>846</v>
       </c>
       <c r="D252" t="s">
         <v>483</v>
@@ -6801,8 +6936,8 @@
       <c r="B253" t="s">
         <v>788</v>
       </c>
-      <c r="C253">
-        <v>7052</v>
+      <c r="C253" s="1" t="s">
+        <v>847</v>
       </c>
       <c r="D253" t="s">
         <v>485</v>
@@ -6815,8 +6950,8 @@
       <c r="B254" t="s">
         <v>788</v>
       </c>
-      <c r="C254">
-        <v>7726</v>
+      <c r="C254" s="1" t="s">
+        <v>848</v>
       </c>
       <c r="D254" t="s">
         <v>487</v>
@@ -6829,7 +6964,7 @@
       <c r="B255" t="s">
         <v>789</v>
       </c>
-      <c r="C255">
+      <c r="C255" s="1">
         <v>87505</v>
       </c>
       <c r="D255" t="s">
@@ -6843,7 +6978,7 @@
       <c r="B256" t="s">
         <v>789</v>
       </c>
-      <c r="C256">
+      <c r="C256" s="1">
         <v>87110</v>
       </c>
       <c r="D256" t="s">
@@ -6857,7 +6992,7 @@
       <c r="B257" t="s">
         <v>789</v>
       </c>
-      <c r="C257">
+      <c r="C257" s="1">
         <v>87505</v>
       </c>
       <c r="D257" t="s">
@@ -6871,7 +7006,7 @@
       <c r="B258" t="s">
         <v>789</v>
       </c>
-      <c r="C258">
+      <c r="C258" s="1">
         <v>87109</v>
       </c>
       <c r="D258" t="s">
@@ -6885,7 +7020,7 @@
       <c r="B259" t="s">
         <v>790</v>
       </c>
-      <c r="C259">
+      <c r="C259" s="1">
         <v>89128</v>
       </c>
       <c r="D259" t="s">
@@ -6899,7 +7034,7 @@
       <c r="B260" t="s">
         <v>790</v>
       </c>
-      <c r="C260">
+      <c r="C260" s="1">
         <v>89502</v>
       </c>
       <c r="D260" t="s">
@@ -6913,7 +7048,7 @@
       <c r="B261" t="s">
         <v>790</v>
       </c>
-      <c r="C261">
+      <c r="C261" s="1">
         <v>89119</v>
       </c>
       <c r="D261" t="s">
@@ -6927,7 +7062,7 @@
       <c r="B262" t="s">
         <v>790</v>
       </c>
-      <c r="C262">
+      <c r="C262" s="1">
         <v>89012</v>
       </c>
       <c r="D262" t="s">
@@ -6941,7 +7076,7 @@
       <c r="B263" t="s">
         <v>790</v>
       </c>
-      <c r="C263">
+      <c r="C263" s="1">
         <v>89117</v>
       </c>
       <c r="D263" t="s">
@@ -6955,7 +7090,7 @@
       <c r="B264" t="s">
         <v>791</v>
       </c>
-      <c r="C264">
+      <c r="C264" s="1">
         <v>10710</v>
       </c>
       <c r="D264" t="s">
@@ -6969,7 +7104,7 @@
       <c r="B265" t="s">
         <v>791</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C265" s="1" t="s">
         <v>792</v>
       </c>
       <c r="D265" t="s">
@@ -6983,7 +7118,7 @@
       <c r="B266" t="s">
         <v>791</v>
       </c>
-      <c r="C266">
+      <c r="C266" s="1">
         <v>10025</v>
       </c>
       <c r="D266" t="s">
@@ -6997,7 +7132,7 @@
       <c r="B267" t="s">
         <v>791</v>
       </c>
-      <c r="C267">
+      <c r="C267" s="1">
         <v>10573</v>
       </c>
       <c r="D267" t="s">
@@ -7011,7 +7146,7 @@
       <c r="B268" t="s">
         <v>791</v>
       </c>
-      <c r="C268">
+      <c r="C268" s="1">
         <v>11215</v>
       </c>
       <c r="D268" t="s">
@@ -7025,7 +7160,7 @@
       <c r="B269" t="s">
         <v>791</v>
       </c>
-      <c r="C269">
+      <c r="C269" s="1">
         <v>10128</v>
       </c>
       <c r="D269" t="s">
@@ -7039,7 +7174,7 @@
       <c r="B270" t="s">
         <v>791</v>
       </c>
-      <c r="C270">
+      <c r="C270" s="1">
         <v>12205</v>
       </c>
       <c r="D270" t="s">
@@ -7053,7 +7188,7 @@
       <c r="B271" t="s">
         <v>791</v>
       </c>
-      <c r="C271">
+      <c r="C271" s="1">
         <v>10003</v>
       </c>
       <c r="D271" t="s">
@@ -7067,7 +7202,7 @@
       <c r="B272" t="s">
         <v>791</v>
       </c>
-      <c r="C272">
+      <c r="C272" s="1">
         <v>10007</v>
       </c>
       <c r="D272" t="s">
@@ -7081,7 +7216,7 @@
       <c r="B273" t="s">
         <v>791</v>
       </c>
-      <c r="C273">
+      <c r="C273" s="1">
         <v>10002</v>
       </c>
       <c r="D273" t="s">
@@ -7095,7 +7230,7 @@
       <c r="B274" t="s">
         <v>791</v>
       </c>
-      <c r="C274">
+      <c r="C274" s="1">
         <v>10019</v>
       </c>
       <c r="D274" t="s">
@@ -7109,7 +7244,7 @@
       <c r="B275" t="s">
         <v>791</v>
       </c>
-      <c r="C275">
+      <c r="C275" s="1">
         <v>10001</v>
       </c>
       <c r="D275" t="s">
@@ -7123,7 +7258,7 @@
       <c r="B276" t="s">
         <v>791</v>
       </c>
-      <c r="C276" t="s">
+      <c r="C276" s="1" t="s">
         <v>793</v>
       </c>
       <c r="D276" t="s">
@@ -7137,7 +7272,7 @@
       <c r="B277" t="s">
         <v>791</v>
       </c>
-      <c r="C277">
+      <c r="C277" s="1">
         <v>11755</v>
       </c>
       <c r="D277" t="s">
@@ -7151,7 +7286,7 @@
       <c r="B278" t="s">
         <v>791</v>
       </c>
-      <c r="C278">
+      <c r="C278" s="1">
         <v>11030</v>
       </c>
       <c r="D278" t="s">
@@ -7165,7 +7300,7 @@
       <c r="B279" t="s">
         <v>791</v>
       </c>
-      <c r="C279">
+      <c r="C279" s="1">
         <v>10022</v>
       </c>
       <c r="D279" t="s">
@@ -7179,7 +7314,7 @@
       <c r="B280" t="s">
         <v>791</v>
       </c>
-      <c r="C280">
+      <c r="C280" s="1">
         <v>11249</v>
       </c>
       <c r="D280" t="s">
@@ -7193,7 +7328,7 @@
       <c r="B281" t="s">
         <v>794</v>
       </c>
-      <c r="C281">
+      <c r="C281" s="1">
         <v>45458</v>
       </c>
       <c r="D281" t="s">
@@ -7207,7 +7342,7 @@
       <c r="B282" t="s">
         <v>794</v>
       </c>
-      <c r="C282">
+      <c r="C282" s="1">
         <v>43219</v>
       </c>
       <c r="D282" t="s">
@@ -7221,7 +7356,7 @@
       <c r="B283" t="s">
         <v>794</v>
       </c>
-      <c r="C283">
+      <c r="C283" s="1">
         <v>44116</v>
       </c>
       <c r="D283" t="s">
@@ -7235,7 +7370,7 @@
       <c r="B284" t="s">
         <v>794</v>
       </c>
-      <c r="C284">
+      <c r="C284" s="1">
         <v>43221</v>
       </c>
       <c r="D284" t="s">
@@ -7249,7 +7384,7 @@
       <c r="B285" t="s">
         <v>794</v>
       </c>
-      <c r="C285">
+      <c r="C285" s="1">
         <v>45040</v>
       </c>
       <c r="D285" t="s">
@@ -7263,7 +7398,7 @@
       <c r="B286" t="s">
         <v>794</v>
       </c>
-      <c r="C286">
+      <c r="C286" s="1">
         <v>45209</v>
       </c>
       <c r="D286" t="s">
@@ -7277,7 +7412,7 @@
       <c r="B287" t="s">
         <v>794</v>
       </c>
-      <c r="C287">
+      <c r="C287" s="1">
         <v>44118</v>
       </c>
       <c r="D287" t="s">
@@ -7291,7 +7426,7 @@
       <c r="B288" t="s">
         <v>794</v>
       </c>
-      <c r="C288">
+      <c r="C288" s="1">
         <v>43235</v>
       </c>
       <c r="D288" t="s">
@@ -7305,7 +7440,7 @@
       <c r="B289" t="s">
         <v>794</v>
       </c>
-      <c r="C289">
+      <c r="C289" s="1">
         <v>44122</v>
       </c>
       <c r="D289" t="s">
@@ -7319,7 +7454,7 @@
       <c r="B290" t="s">
         <v>795</v>
       </c>
-      <c r="C290">
+      <c r="C290" s="1">
         <v>74137</v>
       </c>
       <c r="D290" t="s">
@@ -7333,7 +7468,7 @@
       <c r="B291" t="s">
         <v>795</v>
       </c>
-      <c r="C291">
+      <c r="C291" s="1">
         <v>73118</v>
       </c>
       <c r="D291" t="s">
@@ -7347,7 +7482,7 @@
       <c r="B292" t="s">
         <v>795</v>
       </c>
-      <c r="C292">
+      <c r="C292" s="1">
         <v>74105</v>
       </c>
       <c r="D292" t="s">
@@ -7361,7 +7496,7 @@
       <c r="B293" t="s">
         <v>796</v>
       </c>
-      <c r="C293">
+      <c r="C293" s="1">
         <v>97209</v>
       </c>
       <c r="D293" t="s">
@@ -7375,7 +7510,7 @@
       <c r="B294" t="s">
         <v>796</v>
       </c>
-      <c r="C294">
+      <c r="C294" s="1">
         <v>97124</v>
       </c>
       <c r="D294" t="s">
@@ -7389,7 +7524,7 @@
       <c r="B295" t="s">
         <v>796</v>
       </c>
-      <c r="C295">
+      <c r="C295" s="1">
         <v>97223</v>
       </c>
       <c r="D295" t="s">
@@ -7403,7 +7538,7 @@
       <c r="B296" t="s">
         <v>796</v>
       </c>
-      <c r="C296">
+      <c r="C296" s="1">
         <v>97214</v>
       </c>
       <c r="D296" t="s">
@@ -7417,7 +7552,7 @@
       <c r="B297" t="s">
         <v>796</v>
       </c>
-      <c r="C297">
+      <c r="C297" s="1">
         <v>97213</v>
       </c>
       <c r="D297" t="s">
@@ -7431,7 +7566,7 @@
       <c r="B298" t="s">
         <v>796</v>
       </c>
-      <c r="C298">
+      <c r="C298" s="1">
         <v>97224</v>
       </c>
       <c r="D298" t="s">
@@ -7445,7 +7580,7 @@
       <c r="B299" t="s">
         <v>796</v>
       </c>
-      <c r="C299">
+      <c r="C299" s="1">
         <v>97212</v>
       </c>
       <c r="D299" t="s">
@@ -7459,7 +7594,7 @@
       <c r="B300" t="s">
         <v>796</v>
       </c>
-      <c r="C300" t="s">
+      <c r="C300" s="1" t="s">
         <v>797</v>
       </c>
       <c r="D300" t="s">
@@ -7473,7 +7608,7 @@
       <c r="B301" t="s">
         <v>798</v>
       </c>
-      <c r="C301">
+      <c r="C301" s="1">
         <v>15206</v>
       </c>
       <c r="D301" t="s">
@@ -7487,7 +7622,7 @@
       <c r="B302" t="s">
         <v>798</v>
       </c>
-      <c r="C302">
+      <c r="C302" s="1">
         <v>19147</v>
       </c>
       <c r="D302" t="s">
@@ -7501,7 +7636,7 @@
       <c r="B303" t="s">
         <v>798</v>
       </c>
-      <c r="C303">
+      <c r="C303" s="1">
         <v>19096</v>
       </c>
       <c r="D303" t="s">
@@ -7515,7 +7650,7 @@
       <c r="B304" t="s">
         <v>798</v>
       </c>
-      <c r="C304">
+      <c r="C304" s="1">
         <v>15090</v>
       </c>
       <c r="D304" t="s">
@@ -7529,7 +7664,7 @@
       <c r="B305" t="s">
         <v>798</v>
       </c>
-      <c r="C305">
+      <c r="C305" s="1">
         <v>19462</v>
       </c>
       <c r="D305" t="s">
@@ -7543,7 +7678,7 @@
       <c r="B306" t="s">
         <v>798</v>
       </c>
-      <c r="C306">
+      <c r="C306" s="1">
         <v>19130</v>
       </c>
       <c r="D306" t="s">
@@ -7557,7 +7692,7 @@
       <c r="B307" t="s">
         <v>798</v>
       </c>
-      <c r="C307">
+      <c r="C307" s="1">
         <v>19087</v>
       </c>
       <c r="D307" t="s">
@@ -7571,7 +7706,7 @@
       <c r="B308" t="s">
         <v>798</v>
       </c>
-      <c r="C308">
+      <c r="C308" s="1">
         <v>19046</v>
       </c>
       <c r="D308" t="s">
@@ -7585,7 +7720,7 @@
       <c r="B309" t="s">
         <v>798</v>
       </c>
-      <c r="C309">
+      <c r="C309" s="1">
         <v>19454</v>
       </c>
       <c r="D309" t="s">
@@ -7599,7 +7734,7 @@
       <c r="B310" t="s">
         <v>798</v>
       </c>
-      <c r="C310">
+      <c r="C310" s="1">
         <v>19342</v>
       </c>
       <c r="D310" t="s">
@@ -7613,8 +7748,8 @@
       <c r="B311" t="s">
         <v>799</v>
       </c>
-      <c r="C311">
-        <v>2904</v>
+      <c r="C311" s="1" t="s">
+        <v>849</v>
       </c>
       <c r="D311" t="s">
         <v>599</v>
@@ -7627,8 +7762,8 @@
       <c r="B312" t="s">
         <v>799</v>
       </c>
-      <c r="C312">
-        <v>2906</v>
+      <c r="C312" s="1" t="s">
+        <v>850</v>
       </c>
       <c r="D312" t="s">
         <v>601</v>
@@ -7641,8 +7776,8 @@
       <c r="B313" t="s">
         <v>799</v>
       </c>
-      <c r="C313">
-        <v>2920</v>
+      <c r="C313" s="1" t="s">
+        <v>851</v>
       </c>
       <c r="D313" t="s">
         <v>603</v>
@@ -7655,8 +7790,8 @@
       <c r="B314" t="s">
         <v>800</v>
       </c>
-      <c r="C314">
-        <v>29928</v>
+      <c r="C314" s="1" t="s">
+        <v>852</v>
       </c>
       <c r="D314" t="s">
         <v>605</v>
@@ -7669,7 +7804,7 @@
       <c r="B315" t="s">
         <v>800</v>
       </c>
-      <c r="C315" t="s">
+      <c r="C315" s="1" t="s">
         <v>801</v>
       </c>
       <c r="D315" t="s">
@@ -7683,7 +7818,7 @@
       <c r="B316" t="s">
         <v>800</v>
       </c>
-      <c r="C316">
+      <c r="C316" s="1">
         <v>29607</v>
       </c>
       <c r="D316" t="s">
@@ -7697,7 +7832,7 @@
       <c r="B317" t="s">
         <v>800</v>
       </c>
-      <c r="C317">
+      <c r="C317" s="1">
         <v>29464</v>
       </c>
       <c r="D317" t="s">
@@ -7711,7 +7846,7 @@
       <c r="B318" t="s">
         <v>802</v>
       </c>
-      <c r="C318">
+      <c r="C318" s="1">
         <v>37919</v>
       </c>
       <c r="D318" t="s">
@@ -7725,7 +7860,7 @@
       <c r="B319" t="s">
         <v>802</v>
       </c>
-      <c r="C319" t="s">
+      <c r="C319" s="1" t="s">
         <v>803</v>
       </c>
       <c r="D319" t="s">
@@ -7739,7 +7874,7 @@
       <c r="B320" t="s">
         <v>802</v>
       </c>
-      <c r="C320">
+      <c r="C320" s="1">
         <v>38117</v>
       </c>
       <c r="D320" t="s">
@@ -7753,7 +7888,7 @@
       <c r="B321" t="s">
         <v>802</v>
       </c>
-      <c r="C321">
+      <c r="C321" s="1">
         <v>37067</v>
       </c>
       <c r="D321" t="s">
@@ -7767,7 +7902,7 @@
       <c r="B322" t="s">
         <v>802</v>
       </c>
-      <c r="C322">
+      <c r="C322" s="1">
         <v>37215</v>
       </c>
       <c r="D322" t="s">
@@ -7781,7 +7916,7 @@
       <c r="B323" t="s">
         <v>802</v>
       </c>
-      <c r="C323">
+      <c r="C323" s="1">
         <v>37405</v>
       </c>
       <c r="D323" t="s">
@@ -7795,7 +7930,7 @@
       <c r="B324" t="s">
         <v>804</v>
       </c>
-      <c r="C324">
+      <c r="C324" s="1">
         <v>77494</v>
       </c>
       <c r="D324" t="s">
@@ -7809,7 +7944,7 @@
       <c r="B325" t="s">
         <v>804</v>
       </c>
-      <c r="C325">
+      <c r="C325" s="1">
         <v>75254</v>
       </c>
       <c r="D325" t="s">
@@ -7823,7 +7958,7 @@
       <c r="B326" t="s">
         <v>804</v>
       </c>
-      <c r="C326">
+      <c r="C326" s="1">
         <v>78258</v>
       </c>
       <c r="D326" t="s">
@@ -7837,7 +7972,7 @@
       <c r="B327" t="s">
         <v>804</v>
       </c>
-      <c r="C327">
+      <c r="C327" s="1">
         <v>77478</v>
       </c>
       <c r="D327" t="s">
@@ -7851,7 +7986,7 @@
       <c r="B328" t="s">
         <v>804</v>
       </c>
-      <c r="C328">
+      <c r="C328" s="1">
         <v>75093</v>
       </c>
       <c r="D328" t="s">
@@ -7865,7 +8000,7 @@
       <c r="B329" t="s">
         <v>804</v>
       </c>
-      <c r="C329">
+      <c r="C329" s="1">
         <v>78209</v>
       </c>
       <c r="D329" t="s">
@@ -7879,7 +8014,7 @@
       <c r="B330" t="s">
         <v>804</v>
       </c>
-      <c r="C330">
+      <c r="C330" s="1">
         <v>78758</v>
       </c>
       <c r="D330" t="s">
@@ -7893,7 +8028,7 @@
       <c r="B331" t="s">
         <v>804</v>
       </c>
-      <c r="C331">
+      <c r="C331" s="1">
         <v>77070</v>
       </c>
       <c r="D331" t="s">
@@ -7907,7 +8042,7 @@
       <c r="B332" t="s">
         <v>804</v>
       </c>
-      <c r="C332">
+      <c r="C332" s="1">
         <v>77380</v>
       </c>
       <c r="D332" t="s">
@@ -7921,7 +8056,7 @@
       <c r="B333" t="s">
         <v>804</v>
       </c>
-      <c r="C333">
+      <c r="C333" s="1">
         <v>75201</v>
       </c>
       <c r="D333" t="s">
@@ -7935,7 +8070,7 @@
       <c r="B334" t="s">
         <v>804</v>
       </c>
-      <c r="C334">
+      <c r="C334" s="1">
         <v>75077</v>
       </c>
       <c r="D334" t="s">
@@ -7949,7 +8084,7 @@
       <c r="B335" t="s">
         <v>804</v>
       </c>
-      <c r="C335">
+      <c r="C335" s="1">
         <v>77056</v>
       </c>
       <c r="D335" t="s">
@@ -7963,7 +8098,7 @@
       <c r="B336" t="s">
         <v>804</v>
       </c>
-      <c r="C336">
+      <c r="C336" s="1">
         <v>76034</v>
       </c>
       <c r="D336" t="s">
@@ -7977,7 +8112,7 @@
       <c r="B337" t="s">
         <v>804</v>
       </c>
-      <c r="C337">
+      <c r="C337" s="1">
         <v>76011</v>
       </c>
       <c r="D337" t="s">
@@ -7991,7 +8126,7 @@
       <c r="B338" t="s">
         <v>804</v>
       </c>
-      <c r="C338">
+      <c r="C338" s="1">
         <v>75231</v>
       </c>
       <c r="D338" t="s">
@@ -8005,7 +8140,7 @@
       <c r="B339" t="s">
         <v>804</v>
       </c>
-      <c r="C339">
+      <c r="C339" s="1">
         <v>77025</v>
       </c>
       <c r="D339" t="s">
@@ -8019,7 +8154,7 @@
       <c r="B340" t="s">
         <v>804</v>
       </c>
-      <c r="C340">
+      <c r="C340" s="1">
         <v>75230</v>
       </c>
       <c r="D340" t="s">
@@ -8033,7 +8168,7 @@
       <c r="B341" t="s">
         <v>804</v>
       </c>
-      <c r="C341">
+      <c r="C341" s="1">
         <v>78738</v>
       </c>
       <c r="D341" t="s">
@@ -8047,7 +8182,7 @@
       <c r="B342" t="s">
         <v>804</v>
       </c>
-      <c r="C342">
+      <c r="C342" s="1">
         <v>78749</v>
       </c>
       <c r="D342" t="s">
@@ -8061,7 +8196,7 @@
       <c r="B343" t="s">
         <v>804</v>
       </c>
-      <c r="C343">
+      <c r="C343" s="1">
         <v>77042</v>
       </c>
       <c r="D343" t="s">
@@ -8075,7 +8210,7 @@
       <c r="B344" t="s">
         <v>804</v>
       </c>
-      <c r="C344">
+      <c r="C344" s="1">
         <v>75082</v>
       </c>
       <c r="D344" t="s">
@@ -8089,7 +8224,7 @@
       <c r="B345" t="s">
         <v>804</v>
       </c>
-      <c r="C345">
+      <c r="C345" s="1">
         <v>75069</v>
       </c>
       <c r="D345" t="s">
@@ -8103,7 +8238,7 @@
       <c r="B346" t="s">
         <v>804</v>
       </c>
-      <c r="C346">
+      <c r="C346" s="1">
         <v>78759</v>
       </c>
       <c r="D346" t="s">
@@ -8117,7 +8252,7 @@
       <c r="B347" t="s">
         <v>804</v>
       </c>
-      <c r="C347">
+      <c r="C347" s="1">
         <v>78703</v>
       </c>
       <c r="D347" t="s">
@@ -8131,7 +8266,7 @@
       <c r="B348" t="s">
         <v>804</v>
       </c>
-      <c r="C348">
+      <c r="C348" s="1">
         <v>77019</v>
       </c>
       <c r="D348" t="s">
@@ -8145,7 +8280,7 @@
       <c r="B349" t="s">
         <v>804</v>
       </c>
-      <c r="C349">
+      <c r="C349" s="1">
         <v>75214</v>
       </c>
       <c r="D349" t="s">
@@ -8159,7 +8294,7 @@
       <c r="B350" t="s">
         <v>804</v>
       </c>
-      <c r="C350">
+      <c r="C350" s="1">
         <v>77098</v>
       </c>
       <c r="D350" t="s">
@@ -8173,7 +8308,7 @@
       <c r="B351" t="s">
         <v>804</v>
       </c>
-      <c r="C351">
+      <c r="C351" s="1">
         <v>75219</v>
       </c>
       <c r="D351" t="s">
@@ -8187,7 +8322,7 @@
       <c r="B352" t="s">
         <v>804</v>
       </c>
-      <c r="C352">
+      <c r="C352" s="1">
         <v>77057</v>
       </c>
       <c r="D352" t="s">
@@ -8201,7 +8336,7 @@
       <c r="B353" t="s">
         <v>805</v>
       </c>
-      <c r="C353">
+      <c r="C353" s="1">
         <v>84020</v>
       </c>
       <c r="D353" t="s">
@@ -8215,7 +8350,7 @@
       <c r="B354" t="s">
         <v>805</v>
       </c>
-      <c r="C354">
+      <c r="C354" s="1">
         <v>84102</v>
       </c>
       <c r="D354" t="s">
@@ -8229,7 +8364,7 @@
       <c r="B355" t="s">
         <v>805</v>
       </c>
-      <c r="C355">
+      <c r="C355" s="1">
         <v>84106</v>
       </c>
       <c r="D355" t="s">
@@ -8243,7 +8378,7 @@
       <c r="B356" t="s">
         <v>805</v>
       </c>
-      <c r="C356">
+      <c r="C356" s="1">
         <v>84098</v>
       </c>
       <c r="D356" t="s">
@@ -8257,7 +8392,7 @@
       <c r="B357" t="s">
         <v>805</v>
       </c>
-      <c r="C357">
+      <c r="C357" s="1">
         <v>84121</v>
       </c>
       <c r="D357" t="s">
@@ -8271,7 +8406,7 @@
       <c r="B358" t="s">
         <v>806</v>
       </c>
-      <c r="C358">
+      <c r="C358" s="1">
         <v>23454</v>
       </c>
       <c r="D358" t="s">
@@ -8285,7 +8420,7 @@
       <c r="B359" t="s">
         <v>806</v>
       </c>
-      <c r="C359">
+      <c r="C359" s="1">
         <v>22180</v>
       </c>
       <c r="D359" t="s">
@@ -8299,7 +8434,7 @@
       <c r="B360" t="s">
         <v>806</v>
       </c>
-      <c r="C360">
+      <c r="C360" s="1">
         <v>20147</v>
       </c>
       <c r="D360" t="s">
@@ -8313,7 +8448,7 @@
       <c r="B361" t="s">
         <v>806</v>
       </c>
-      <c r="C361">
+      <c r="C361" s="1">
         <v>23606</v>
       </c>
       <c r="D361" t="s">
@@ -8327,7 +8462,7 @@
       <c r="B362" t="s">
         <v>806</v>
       </c>
-      <c r="C362">
+      <c r="C362" s="1">
         <v>22202</v>
       </c>
       <c r="D362" t="s">
@@ -8341,7 +8476,7 @@
       <c r="B363" t="s">
         <v>806</v>
       </c>
-      <c r="C363">
+      <c r="C363" s="1">
         <v>22043</v>
       </c>
       <c r="D363" t="s">
@@ -8355,7 +8490,7 @@
       <c r="B364" t="s">
         <v>806</v>
       </c>
-      <c r="C364">
+      <c r="C364" s="1">
         <v>22152</v>
       </c>
       <c r="D364" t="s">
@@ -8369,7 +8504,7 @@
       <c r="B365" t="s">
         <v>806</v>
       </c>
-      <c r="C365">
+      <c r="C365" s="1">
         <v>22033</v>
       </c>
       <c r="D365" t="s">
@@ -8383,7 +8518,7 @@
       <c r="B366" t="s">
         <v>806</v>
       </c>
-      <c r="C366">
+      <c r="C366" s="1">
         <v>22901</v>
       </c>
       <c r="D366" t="s">
@@ -8397,7 +8532,7 @@
       <c r="B367" t="s">
         <v>806</v>
       </c>
-      <c r="C367">
+      <c r="C367" s="1">
         <v>22314</v>
       </c>
       <c r="D367" t="s">
@@ -8411,7 +8546,7 @@
       <c r="B368" t="s">
         <v>806</v>
       </c>
-      <c r="C368">
+      <c r="C368" s="1">
         <v>20190</v>
       </c>
       <c r="D368" t="s">
@@ -8425,7 +8560,7 @@
       <c r="B369" t="s">
         <v>806</v>
       </c>
-      <c r="C369">
+      <c r="C369" s="1">
         <v>23060</v>
       </c>
       <c r="D369" t="s">
@@ -8439,7 +8574,7 @@
       <c r="B370" t="s">
         <v>806</v>
       </c>
-      <c r="C370">
+      <c r="C370" s="1">
         <v>22201</v>
       </c>
       <c r="D370" t="s">
@@ -8453,7 +8588,7 @@
       <c r="B371" t="s">
         <v>807</v>
       </c>
-      <c r="C371">
+      <c r="C371" s="1">
         <v>98121</v>
       </c>
       <c r="D371" t="s">
@@ -8467,7 +8602,7 @@
       <c r="B372" t="s">
         <v>807</v>
       </c>
-      <c r="C372">
+      <c r="C372" s="1">
         <v>98466</v>
       </c>
       <c r="D372" t="s">
@@ -8481,7 +8616,7 @@
       <c r="B373" t="s">
         <v>807</v>
       </c>
-      <c r="C373">
+      <c r="C373" s="1">
         <v>98229</v>
       </c>
       <c r="D373" t="s">
@@ -8495,7 +8630,7 @@
       <c r="B374" t="s">
         <v>807</v>
       </c>
-      <c r="C374">
+      <c r="C374" s="1">
         <v>98115</v>
       </c>
       <c r="D374" t="s">
@@ -8509,7 +8644,7 @@
       <c r="B375" t="s">
         <v>807</v>
       </c>
-      <c r="C375">
+      <c r="C375" s="1">
         <v>98052</v>
       </c>
       <c r="D375" t="s">
@@ -8523,7 +8658,7 @@
       <c r="B376" t="s">
         <v>807</v>
       </c>
-      <c r="C376">
+      <c r="C376" s="1">
         <v>98119</v>
       </c>
       <c r="D376" t="s">
@@ -8537,7 +8672,7 @@
       <c r="B377" t="s">
         <v>807</v>
       </c>
-      <c r="C377">
+      <c r="C377" s="1">
         <v>98036</v>
       </c>
       <c r="D377" t="s">
@@ -8551,7 +8686,7 @@
       <c r="B378" t="s">
         <v>807</v>
       </c>
-      <c r="C378">
+      <c r="C378" s="1">
         <v>98683</v>
       </c>
       <c r="D378" t="s">
@@ -8565,7 +8700,7 @@
       <c r="B379" t="s">
         <v>807</v>
       </c>
-      <c r="C379">
+      <c r="C379" s="1">
         <v>98004</v>
       </c>
       <c r="D379" t="s">
@@ -8579,7 +8714,7 @@
       <c r="B380" t="s">
         <v>808</v>
       </c>
-      <c r="C380">
+      <c r="C380" s="1">
         <v>53222</v>
       </c>
       <c r="D380" t="s">
@@ -8593,7 +8728,7 @@
       <c r="B381" t="s">
         <v>808</v>
       </c>
-      <c r="C381">
+      <c r="C381" s="1">
         <v>53211</v>
       </c>
       <c r="D381" t="s">
@@ -8607,7 +8742,7 @@
       <c r="B382" t="s">
         <v>808</v>
       </c>
-      <c r="C382">
+      <c r="C382" s="1">
         <v>53705</v>
       </c>
       <c r="D382" t="s">
@@ -8616,5 +8751,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>